--- a/src/Manual Test Cases.xlsx
+++ b/src/Manual Test Cases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/WebstormProjects/planets-wekazaji/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18CF933-1233-A749-9D9B-66CA8414E9F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Browser Compatibility Test Cases</t>
   </si>
@@ -213,12 +214,15 @@
   </si>
   <si>
     <t>Test gravity for planet 14 (350)</t>
+  </si>
+  <si>
+    <t>Done?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -272,6 +276,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,475 +546,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="2" t="s">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C48" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C67" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C68" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C74" s="2" t="s">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C75" s="2" t="s">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="2" t="s">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C79" s="2" t="s">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="2" t="s">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="2" t="s">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="2" t="s">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
         <v>61</v>
       </c>
     </row>
